--- a/boite_liste_pieces.xlsx
+++ b/boite_liste_pieces.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morgane\Documents\Boite_generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morgane\Documents\Boite_generator\Boite_generatorV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{444401C8-3764-4ABD-9DCF-2CD914201DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1383DD62-7B02-4326-AFB3-25AA116FE18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{41CBEBEE-8876-477B-A726-F547FAF38124}"/>
   </bookViews>
@@ -316,10 +316,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,19 +339,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -374,19 +369,13 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -726,7 +715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B5948B-C5AB-4894-A446-9ED44026AAB2}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
@@ -736,911 +725,908 @@
   <cols>
     <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="22"/>
-    <col min="17" max="19" width="11.5546875" style="1"/>
+    <col min="16" max="16" width="11.5546875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="Q1" s="21"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="Q2" s="21"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="Q3" s="21"/>
-    </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="O3" s="7"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="24" t="s">
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="24" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="10"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
+      <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="16">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16">
-        <v>1</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16">
-        <v>1</v>
-      </c>
-      <c r="I6" s="16">
-        <v>1</v>
-      </c>
-      <c r="J6" s="16">
-        <v>1</v>
-      </c>
-      <c r="K6" s="16">
-        <v>1</v>
-      </c>
-      <c r="L6" s="16">
-        <v>1</v>
-      </c>
-      <c r="M6" s="16">
-        <v>1</v>
-      </c>
-      <c r="N6" s="16">
-        <v>1</v>
-      </c>
-      <c r="O6" s="16">
-        <v>1</v>
-      </c>
-      <c r="P6" s="22" t="s">
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13">
+        <v>1</v>
+      </c>
+      <c r="K6" s="13">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13">
+        <v>1</v>
+      </c>
+      <c r="M6" s="13">
+        <v>1</v>
+      </c>
+      <c r="N6" s="13">
+        <v>1</v>
+      </c>
+      <c r="O6" s="13">
+        <v>1</v>
+      </c>
+      <c r="P6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="21"/>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="16">
-        <v>2</v>
-      </c>
-      <c r="C7" s="16">
-        <v>2</v>
-      </c>
-      <c r="D7" s="16">
-        <v>2</v>
-      </c>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16">
-        <v>2</v>
-      </c>
-      <c r="G7" s="16">
-        <v>2</v>
-      </c>
-      <c r="H7" s="16">
-        <v>2</v>
-      </c>
-      <c r="I7" s="16">
-        <v>2</v>
-      </c>
-      <c r="J7" s="16">
-        <v>2</v>
-      </c>
-      <c r="K7" s="16">
-        <v>2</v>
-      </c>
-      <c r="L7" s="16">
-        <v>2</v>
-      </c>
-      <c r="M7" s="16">
-        <v>2</v>
-      </c>
-      <c r="N7" s="16">
-        <v>2</v>
-      </c>
-      <c r="O7" s="16">
-        <v>2</v>
-      </c>
-      <c r="P7" s="22" t="s">
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2</v>
+      </c>
+      <c r="G7" s="13">
+        <v>2</v>
+      </c>
+      <c r="H7" s="13">
+        <v>2</v>
+      </c>
+      <c r="I7" s="13">
+        <v>2</v>
+      </c>
+      <c r="J7" s="13">
+        <v>2</v>
+      </c>
+      <c r="K7" s="13">
+        <v>2</v>
+      </c>
+      <c r="L7" s="13">
+        <v>2</v>
+      </c>
+      <c r="M7" s="13">
+        <v>2</v>
+      </c>
+      <c r="N7" s="13">
+        <v>2</v>
+      </c>
+      <c r="O7" s="13">
+        <v>2</v>
+      </c>
+      <c r="P7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="21"/>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
-        <v>2</v>
-      </c>
-      <c r="G8" s="16">
-        <v>2</v>
-      </c>
-      <c r="H8" s="16">
-        <v>2</v>
-      </c>
-      <c r="I8" s="16">
-        <v>2</v>
-      </c>
-      <c r="J8" s="16">
-        <v>2</v>
-      </c>
-      <c r="K8" s="16">
-        <v>2</v>
-      </c>
-      <c r="L8" s="16">
-        <v>2</v>
-      </c>
-      <c r="M8" s="16">
-        <v>2</v>
-      </c>
-      <c r="N8" s="16">
-        <v>2</v>
-      </c>
-      <c r="O8" s="16">
-        <v>2</v>
-      </c>
-      <c r="P8" s="22" t="s">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13">
+        <v>2</v>
+      </c>
+      <c r="H8" s="13">
+        <v>2</v>
+      </c>
+      <c r="I8" s="13">
+        <v>2</v>
+      </c>
+      <c r="J8" s="13">
+        <v>2</v>
+      </c>
+      <c r="K8" s="13">
+        <v>2</v>
+      </c>
+      <c r="L8" s="13">
+        <v>2</v>
+      </c>
+      <c r="M8" s="13">
+        <v>2</v>
+      </c>
+      <c r="N8" s="13">
+        <v>2</v>
+      </c>
+      <c r="O8" s="13">
+        <v>2</v>
+      </c>
+      <c r="P8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="21"/>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="16">
-        <v>1</v>
-      </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16">
-        <v>1</v>
-      </c>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="22" t="s">
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="21"/>
+      <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="16">
-        <v>1</v>
-      </c>
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="22" t="s">
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="21"/>
+      <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="17" t="s">
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="22" t="s">
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="Q11" s="21"/>
+      <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17" t="s">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="16" t="s">
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="22" t="s">
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="21"/>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="16">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="16">
-        <v>2</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="17">
-        <v>2</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="17">
-        <v>2</v>
-      </c>
-      <c r="O13" s="16">
-        <v>0</v>
-      </c>
-      <c r="P13" s="22" t="s">
+      <c r="B13" s="13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14">
+        <v>2</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Q13" s="21"/>
+      <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="Q14" s="21"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="16">
-        <v>1</v>
-      </c>
-      <c r="C15" s="16">
-        <v>1</v>
-      </c>
-      <c r="D15" s="16">
-        <v>1</v>
-      </c>
-      <c r="E15" s="16">
-        <v>1</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1</v>
-      </c>
-      <c r="G15" s="17">
-        <v>1</v>
-      </c>
-      <c r="H15" s="18">
-        <v>1</v>
-      </c>
-      <c r="I15" s="17">
-        <v>1</v>
-      </c>
-      <c r="J15" s="17">
-        <v>1</v>
-      </c>
-      <c r="K15" s="18">
-        <v>1</v>
-      </c>
-      <c r="L15" s="19">
-        <v>1</v>
-      </c>
-      <c r="M15" s="19">
-        <v>1</v>
-      </c>
-      <c r="N15" s="19">
-        <v>1</v>
-      </c>
-      <c r="O15" s="19">
-        <v>1</v>
-      </c>
-      <c r="P15" s="22" t="s">
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1</v>
+      </c>
+      <c r="J15" s="14">
+        <v>1</v>
+      </c>
+      <c r="K15" s="15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1</v>
+      </c>
+      <c r="M15" s="16">
+        <v>1</v>
+      </c>
+      <c r="N15" s="16">
+        <v>1</v>
+      </c>
+      <c r="O15" s="16">
+        <v>1</v>
+      </c>
+      <c r="P15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="21"/>
+      <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="22" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="22" t="s">
+      <c r="Q16" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="16">
-        <v>1</v>
-      </c>
-      <c r="C17" s="16">
-        <v>1</v>
-      </c>
-      <c r="D17" s="16">
-        <v>1</v>
-      </c>
-      <c r="E17" s="16">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="21"/>
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="16">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
-        <v>4</v>
-      </c>
-      <c r="G18" s="16">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="16">
-        <v>4</v>
-      </c>
-      <c r="J18" s="16">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="B18" s="13">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>4</v>
+      </c>
+      <c r="G18" s="13">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>4</v>
+      </c>
+      <c r="J18" s="13">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="16">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0</v>
-      </c>
-      <c r="F20" s="16">
-        <v>4</v>
-      </c>
-      <c r="G20" s="17">
-        <v>4</v>
-      </c>
-      <c r="H20" s="16">
-        <v>4</v>
-      </c>
-      <c r="I20" s="16">
-        <v>4</v>
-      </c>
-      <c r="J20" s="17">
-        <v>4</v>
-      </c>
-      <c r="K20" s="16">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="16">
-        <v>4</v>
-      </c>
-      <c r="P20" s="22" t="s">
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>4</v>
+      </c>
+      <c r="G20" s="14">
+        <v>4</v>
+      </c>
+      <c r="H20" s="13">
+        <v>4</v>
+      </c>
+      <c r="I20" s="13">
+        <v>4</v>
+      </c>
+      <c r="J20" s="14">
+        <v>4</v>
+      </c>
+      <c r="K20" s="13">
+        <v>4</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
+        <v>4</v>
+      </c>
+      <c r="P20" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="16">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="16">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16">
-        <v>4</v>
-      </c>
-      <c r="G21" s="16">
-        <v>4</v>
-      </c>
-      <c r="H21" s="16">
-        <v>4</v>
-      </c>
-      <c r="I21" s="16">
-        <v>4</v>
-      </c>
-      <c r="J21" s="16">
-        <v>4</v>
-      </c>
-      <c r="K21" s="16">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>4</v>
+      </c>
+      <c r="G21" s="13">
+        <v>4</v>
+      </c>
+      <c r="H21" s="13">
+        <v>4</v>
+      </c>
+      <c r="I21" s="13">
+        <v>4</v>
+      </c>
+      <c r="J21" s="13">
+        <v>4</v>
+      </c>
+      <c r="K21" s="13">
+        <v>4</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="16">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
-        <v>4</v>
-      </c>
-      <c r="G22" s="16">
-        <v>4</v>
-      </c>
-      <c r="H22" s="16">
-        <v>4</v>
-      </c>
-      <c r="I22" s="16">
-        <v>4</v>
-      </c>
-      <c r="J22" s="16">
-        <v>4</v>
-      </c>
-      <c r="K22" s="16">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <v>4</v>
+      </c>
+      <c r="G22" s="13">
+        <v>4</v>
+      </c>
+      <c r="H22" s="13">
+        <v>4</v>
+      </c>
+      <c r="I22" s="13">
+        <v>4</v>
+      </c>
+      <c r="J22" s="13">
+        <v>4</v>
+      </c>
+      <c r="K22" s="13">
+        <v>4</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
         <v>0</v>
       </c>
     </row>
